--- a/cases/exmple.xlsx
+++ b/cases/exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,39 +50,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/login.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/bindMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from t_user_verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794054","code":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库期望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
+    <t>用户账户相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/users.accounts.getDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"active":1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,67 +138,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/s4/dashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/login.mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"err_code":"17711794025","err_msg":"1234"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=0</t>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"err_code":"17711794026","err_msg":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794026","code":"4883"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/bindMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,13 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,16 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="25.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="49.125" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -535,12 +542,12 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -553,19 +560,19 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -574,29 +581,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18">
+    <row r="2" spans="1:14" ht="28.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18">
@@ -606,31 +615,23 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18">
@@ -640,23 +641,23 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18">
@@ -666,21 +667,50 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="18">
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
